--- a/insr1_sup2/insr1_sup2_graph.xlsx
+++ b/insr1_sup2/insr1_sup2_graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESI\2CP\TP1_SFSD\insr1_sup2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F10124-EA2D-4AC9-99EF-0C134BF70D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DABD129-5E34-45D9-9244-8CCB41C6BCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,66 +92,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800">
-                <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
-              </a:rPr>
-              <a:t>insr1 - sup2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.42640978170411625"/>
-          <c:y val="1.5267175572519083E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -161,11 +103,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Feuil1!$A$1</c:f>
+              <c:f>[2]general!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>insr1_LOF</c:v>
+                  <c:v>ins12_lect_LOF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -184,17 +126,317 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]Feuil1!$A$2:$A$97</c:f>
+              <c:f>[2]general!$B$9:$CW$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1118</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1275</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1308</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1341</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1409</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1626</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2058</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2138</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2178</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2219</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E0B8-49C5-B9CD-8DE3DFFEB588}"/>
+              <c16:uniqueId val="{00000000-D108-4B06-8EA9-1DF238D16D70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -203,11 +445,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Feuil1!$B$1</c:f>
+              <c:f>[2]general!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sup2_LOF</c:v>
+                  <c:v>ins12_ecr_LOF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -226,17 +468,1001 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[1]Feuil1!$B$2:$B$97</c:f>
+              <c:f>[2]general!$B$10:$CW$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E0B8-49C5-B9CD-8DE3DFFEB588}"/>
+              <c16:uniqueId val="{00000001-D108-4B06-8EA9-1DF238D16D70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]general!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sup12_lect_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]general!$B$11:$CW$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1266</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1417</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1709</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1849</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D108-4B06-8EA9-1DF238D16D70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]general!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sup12_ecr_LOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]general!$B$12:$CW$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D108-4B06-8EA9-1DF238D16D70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -436,6 +1662,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -999,23 +2226,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD011D4C-A7FB-4650-BDCE-07D3C74F68D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3906A7F5-D473-4D8E-AF64-048E655959C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,6 +2265,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38795</cdr:x>
+      <cdr:y>0.04453</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72831</cdr:x>
+      <cdr:y>0.12939</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="ZoneTexte 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71068093-15EB-4673-B371-C9CBC0E995D5}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2597742" y="229464"/>
+          <a:ext cx="2279059" cy="437286"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
+            </a:rPr>
+            <a:t>ACCÈES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
+            </a:rPr>
+            <a:t> DISQUE </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="Dungeon" panose="040D0607070702040804" pitchFamily="82" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1052,6 +2460,1240 @@
           </cell>
           <cell r="B1" t="str">
             <v>sup2_LOF</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="general"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>ins12_lect_LOF</v>
+          </cell>
+          <cell r="B9">
+            <v>2</v>
+          </cell>
+          <cell r="C9">
+            <v>5</v>
+          </cell>
+          <cell r="D9">
+            <v>8</v>
+          </cell>
+          <cell r="E9">
+            <v>12</v>
+          </cell>
+          <cell r="F9">
+            <v>16</v>
+          </cell>
+          <cell r="G9">
+            <v>20</v>
+          </cell>
+          <cell r="H9">
+            <v>24</v>
+          </cell>
+          <cell r="I9">
+            <v>28</v>
+          </cell>
+          <cell r="J9">
+            <v>34</v>
+          </cell>
+          <cell r="K9">
+            <v>40</v>
+          </cell>
+          <cell r="L9">
+            <v>47</v>
+          </cell>
+          <cell r="M9">
+            <v>54</v>
+          </cell>
+          <cell r="N9">
+            <v>62</v>
+          </cell>
+          <cell r="O9">
+            <v>70</v>
+          </cell>
+          <cell r="P9">
+            <v>79</v>
+          </cell>
+          <cell r="Q9">
+            <v>88</v>
+          </cell>
+          <cell r="R9">
+            <v>97</v>
+          </cell>
+          <cell r="S9">
+            <v>107</v>
+          </cell>
+          <cell r="T9">
+            <v>118</v>
+          </cell>
+          <cell r="U9">
+            <v>129</v>
+          </cell>
+          <cell r="V9">
+            <v>141</v>
+          </cell>
+          <cell r="W9">
+            <v>154</v>
+          </cell>
+          <cell r="X9">
+            <v>167</v>
+          </cell>
+          <cell r="Y9">
+            <v>181</v>
+          </cell>
+          <cell r="Z9">
+            <v>195</v>
+          </cell>
+          <cell r="AA9">
+            <v>209</v>
+          </cell>
+          <cell r="AB9">
+            <v>224</v>
+          </cell>
+          <cell r="AC9">
+            <v>239</v>
+          </cell>
+          <cell r="AD9">
+            <v>255</v>
+          </cell>
+          <cell r="AE9">
+            <v>271</v>
+          </cell>
+          <cell r="AF9">
+            <v>288</v>
+          </cell>
+          <cell r="AG9">
+            <v>305</v>
+          </cell>
+          <cell r="AH9">
+            <v>322</v>
+          </cell>
+          <cell r="AI9">
+            <v>339</v>
+          </cell>
+          <cell r="AJ9">
+            <v>356</v>
+          </cell>
+          <cell r="AK9">
+            <v>373</v>
+          </cell>
+          <cell r="AL9">
+            <v>390</v>
+          </cell>
+          <cell r="AM9">
+            <v>407</v>
+          </cell>
+          <cell r="AN9">
+            <v>424</v>
+          </cell>
+          <cell r="AO9">
+            <v>441</v>
+          </cell>
+          <cell r="AP9">
+            <v>459</v>
+          </cell>
+          <cell r="AQ9">
+            <v>478</v>
+          </cell>
+          <cell r="AR9">
+            <v>497</v>
+          </cell>
+          <cell r="AS9">
+            <v>517</v>
+          </cell>
+          <cell r="AT9">
+            <v>537</v>
+          </cell>
+          <cell r="AU9">
+            <v>557</v>
+          </cell>
+          <cell r="AV9">
+            <v>577</v>
+          </cell>
+          <cell r="AW9">
+            <v>598</v>
+          </cell>
+          <cell r="AX9">
+            <v>619</v>
+          </cell>
+          <cell r="AY9">
+            <v>640</v>
+          </cell>
+          <cell r="AZ9">
+            <v>662</v>
+          </cell>
+          <cell r="BA9">
+            <v>684</v>
+          </cell>
+          <cell r="BB9">
+            <v>707</v>
+          </cell>
+          <cell r="BC9">
+            <v>730</v>
+          </cell>
+          <cell r="BD9">
+            <v>753</v>
+          </cell>
+          <cell r="BE9">
+            <v>776</v>
+          </cell>
+          <cell r="BF9">
+            <v>800</v>
+          </cell>
+          <cell r="BG9">
+            <v>824</v>
+          </cell>
+          <cell r="BH9">
+            <v>848</v>
+          </cell>
+          <cell r="BI9">
+            <v>872</v>
+          </cell>
+          <cell r="BJ9">
+            <v>896</v>
+          </cell>
+          <cell r="BK9">
+            <v>921</v>
+          </cell>
+          <cell r="BL9">
+            <v>947</v>
+          </cell>
+          <cell r="BM9">
+            <v>973</v>
+          </cell>
+          <cell r="BN9">
+            <v>1000</v>
+          </cell>
+          <cell r="BO9">
+            <v>1028</v>
+          </cell>
+          <cell r="BP9">
+            <v>1057</v>
+          </cell>
+          <cell r="BQ9">
+            <v>1087</v>
+          </cell>
+          <cell r="BR9">
+            <v>1118</v>
+          </cell>
+          <cell r="BS9">
+            <v>1149</v>
+          </cell>
+          <cell r="BT9">
+            <v>1180</v>
+          </cell>
+          <cell r="BU9">
+            <v>1211</v>
+          </cell>
+          <cell r="BV9">
+            <v>1243</v>
+          </cell>
+          <cell r="BW9">
+            <v>1275</v>
+          </cell>
+          <cell r="BX9">
+            <v>1308</v>
+          </cell>
+          <cell r="BY9">
+            <v>1341</v>
+          </cell>
+          <cell r="BZ9">
+            <v>1375</v>
+          </cell>
+          <cell r="CA9">
+            <v>1409</v>
+          </cell>
+          <cell r="CB9">
+            <v>1444</v>
+          </cell>
+          <cell r="CC9">
+            <v>1480</v>
+          </cell>
+          <cell r="CD9">
+            <v>1516</v>
+          </cell>
+          <cell r="CE9">
+            <v>1552</v>
+          </cell>
+          <cell r="CF9">
+            <v>1589</v>
+          </cell>
+          <cell r="CG9">
+            <v>1626</v>
+          </cell>
+          <cell r="CH9">
+            <v>1664</v>
+          </cell>
+          <cell r="CI9">
+            <v>1702</v>
+          </cell>
+          <cell r="CJ9">
+            <v>1741</v>
+          </cell>
+          <cell r="CK9">
+            <v>1780</v>
+          </cell>
+          <cell r="CL9">
+            <v>1819</v>
+          </cell>
+          <cell r="CM9">
+            <v>1858</v>
+          </cell>
+          <cell r="CN9">
+            <v>1898</v>
+          </cell>
+          <cell r="CO9">
+            <v>1938</v>
+          </cell>
+          <cell r="CP9">
+            <v>1978</v>
+          </cell>
+          <cell r="CQ9">
+            <v>2018</v>
+          </cell>
+          <cell r="CR9">
+            <v>2058</v>
+          </cell>
+          <cell r="CS9">
+            <v>2098</v>
+          </cell>
+          <cell r="CT9">
+            <v>2138</v>
+          </cell>
+          <cell r="CU9">
+            <v>2178</v>
+          </cell>
+          <cell r="CV9">
+            <v>2219</v>
+          </cell>
+          <cell r="CW9">
+            <v>2260</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>ins12_ecr_LOF</v>
+          </cell>
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>2</v>
+          </cell>
+          <cell r="D10">
+            <v>3</v>
+          </cell>
+          <cell r="E10">
+            <v>4</v>
+          </cell>
+          <cell r="F10">
+            <v>5</v>
+          </cell>
+          <cell r="G10">
+            <v>6</v>
+          </cell>
+          <cell r="H10">
+            <v>7</v>
+          </cell>
+          <cell r="I10">
+            <v>8</v>
+          </cell>
+          <cell r="J10">
+            <v>9</v>
+          </cell>
+          <cell r="K10">
+            <v>10</v>
+          </cell>
+          <cell r="L10">
+            <v>11</v>
+          </cell>
+          <cell r="M10">
+            <v>12</v>
+          </cell>
+          <cell r="N10">
+            <v>13</v>
+          </cell>
+          <cell r="O10">
+            <v>14</v>
+          </cell>
+          <cell r="P10">
+            <v>15</v>
+          </cell>
+          <cell r="Q10">
+            <v>16</v>
+          </cell>
+          <cell r="R10">
+            <v>17</v>
+          </cell>
+          <cell r="S10">
+            <v>18</v>
+          </cell>
+          <cell r="T10">
+            <v>19</v>
+          </cell>
+          <cell r="U10">
+            <v>20</v>
+          </cell>
+          <cell r="V10">
+            <v>21</v>
+          </cell>
+          <cell r="W10">
+            <v>22</v>
+          </cell>
+          <cell r="X10">
+            <v>23</v>
+          </cell>
+          <cell r="Y10">
+            <v>24</v>
+          </cell>
+          <cell r="Z10">
+            <v>25</v>
+          </cell>
+          <cell r="AA10">
+            <v>26</v>
+          </cell>
+          <cell r="AB10">
+            <v>27</v>
+          </cell>
+          <cell r="AC10">
+            <v>28</v>
+          </cell>
+          <cell r="AD10">
+            <v>29</v>
+          </cell>
+          <cell r="AE10">
+            <v>30</v>
+          </cell>
+          <cell r="AF10">
+            <v>31</v>
+          </cell>
+          <cell r="AG10">
+            <v>32</v>
+          </cell>
+          <cell r="AH10">
+            <v>33</v>
+          </cell>
+          <cell r="AI10">
+            <v>34</v>
+          </cell>
+          <cell r="AJ10">
+            <v>35</v>
+          </cell>
+          <cell r="AK10">
+            <v>36</v>
+          </cell>
+          <cell r="AL10">
+            <v>37</v>
+          </cell>
+          <cell r="AM10">
+            <v>38</v>
+          </cell>
+          <cell r="AN10">
+            <v>39</v>
+          </cell>
+          <cell r="AO10">
+            <v>40</v>
+          </cell>
+          <cell r="AP10">
+            <v>41</v>
+          </cell>
+          <cell r="AQ10">
+            <v>42</v>
+          </cell>
+          <cell r="AR10">
+            <v>43</v>
+          </cell>
+          <cell r="AS10">
+            <v>44</v>
+          </cell>
+          <cell r="AT10">
+            <v>45</v>
+          </cell>
+          <cell r="AU10">
+            <v>46</v>
+          </cell>
+          <cell r="AV10">
+            <v>47</v>
+          </cell>
+          <cell r="AW10">
+            <v>48</v>
+          </cell>
+          <cell r="AX10">
+            <v>49</v>
+          </cell>
+          <cell r="AY10">
+            <v>50</v>
+          </cell>
+          <cell r="AZ10">
+            <v>51</v>
+          </cell>
+          <cell r="BA10">
+            <v>52</v>
+          </cell>
+          <cell r="BB10">
+            <v>53</v>
+          </cell>
+          <cell r="BC10">
+            <v>54</v>
+          </cell>
+          <cell r="BD10">
+            <v>55</v>
+          </cell>
+          <cell r="BE10">
+            <v>56</v>
+          </cell>
+          <cell r="BF10">
+            <v>57</v>
+          </cell>
+          <cell r="BG10">
+            <v>58</v>
+          </cell>
+          <cell r="BH10">
+            <v>59</v>
+          </cell>
+          <cell r="BI10">
+            <v>60</v>
+          </cell>
+          <cell r="BJ10">
+            <v>61</v>
+          </cell>
+          <cell r="BK10">
+            <v>62</v>
+          </cell>
+          <cell r="BL10">
+            <v>63</v>
+          </cell>
+          <cell r="BM10">
+            <v>64</v>
+          </cell>
+          <cell r="BN10">
+            <v>65</v>
+          </cell>
+          <cell r="BO10">
+            <v>66</v>
+          </cell>
+          <cell r="BP10">
+            <v>67</v>
+          </cell>
+          <cell r="BQ10">
+            <v>68</v>
+          </cell>
+          <cell r="BR10">
+            <v>69</v>
+          </cell>
+          <cell r="BS10">
+            <v>70</v>
+          </cell>
+          <cell r="BT10">
+            <v>71</v>
+          </cell>
+          <cell r="BU10">
+            <v>72</v>
+          </cell>
+          <cell r="BV10">
+            <v>73</v>
+          </cell>
+          <cell r="BW10">
+            <v>74</v>
+          </cell>
+          <cell r="BX10">
+            <v>75</v>
+          </cell>
+          <cell r="BY10">
+            <v>76</v>
+          </cell>
+          <cell r="BZ10">
+            <v>77</v>
+          </cell>
+          <cell r="CA10">
+            <v>78</v>
+          </cell>
+          <cell r="CB10">
+            <v>79</v>
+          </cell>
+          <cell r="CC10">
+            <v>80</v>
+          </cell>
+          <cell r="CD10">
+            <v>81</v>
+          </cell>
+          <cell r="CE10">
+            <v>82</v>
+          </cell>
+          <cell r="CF10">
+            <v>83</v>
+          </cell>
+          <cell r="CG10">
+            <v>84</v>
+          </cell>
+          <cell r="CH10">
+            <v>85</v>
+          </cell>
+          <cell r="CI10">
+            <v>86</v>
+          </cell>
+          <cell r="CJ10">
+            <v>87</v>
+          </cell>
+          <cell r="CK10">
+            <v>88</v>
+          </cell>
+          <cell r="CL10">
+            <v>89</v>
+          </cell>
+          <cell r="CM10">
+            <v>90</v>
+          </cell>
+          <cell r="CN10">
+            <v>91</v>
+          </cell>
+          <cell r="CO10">
+            <v>92</v>
+          </cell>
+          <cell r="CP10">
+            <v>93</v>
+          </cell>
+          <cell r="CQ10">
+            <v>94</v>
+          </cell>
+          <cell r="CR10">
+            <v>95</v>
+          </cell>
+          <cell r="CS10">
+            <v>96</v>
+          </cell>
+          <cell r="CT10">
+            <v>97</v>
+          </cell>
+          <cell r="CU10">
+            <v>98</v>
+          </cell>
+          <cell r="CV10">
+            <v>99</v>
+          </cell>
+          <cell r="CW10">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>sup12_lect_LOF</v>
+          </cell>
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+          <cell r="C11">
+            <v>4</v>
+          </cell>
+          <cell r="D11">
+            <v>6</v>
+          </cell>
+          <cell r="E11">
+            <v>9</v>
+          </cell>
+          <cell r="F11">
+            <v>12</v>
+          </cell>
+          <cell r="G11">
+            <v>17</v>
+          </cell>
+          <cell r="H11">
+            <v>22</v>
+          </cell>
+          <cell r="I11">
+            <v>26</v>
+          </cell>
+          <cell r="J11">
+            <v>32</v>
+          </cell>
+          <cell r="K11">
+            <v>36</v>
+          </cell>
+          <cell r="L11">
+            <v>41</v>
+          </cell>
+          <cell r="M11">
+            <v>48</v>
+          </cell>
+          <cell r="N11">
+            <v>53</v>
+          </cell>
+          <cell r="O11">
+            <v>59</v>
+          </cell>
+          <cell r="P11">
+            <v>67</v>
+          </cell>
+          <cell r="Q11">
+            <v>73</v>
+          </cell>
+          <cell r="R11">
+            <v>80</v>
+          </cell>
+          <cell r="S11">
+            <v>89</v>
+          </cell>
+          <cell r="T11">
+            <v>98</v>
+          </cell>
+          <cell r="U11">
+            <v>106</v>
+          </cell>
+          <cell r="V11">
+            <v>116</v>
+          </cell>
+          <cell r="W11">
+            <v>126</v>
+          </cell>
+          <cell r="X11">
+            <v>135</v>
+          </cell>
+          <cell r="Y11">
+            <v>146</v>
+          </cell>
+          <cell r="Z11">
+            <v>155</v>
+          </cell>
+          <cell r="AA11">
+            <v>165</v>
+          </cell>
+          <cell r="AB11">
+            <v>177</v>
+          </cell>
+          <cell r="AC11">
+            <v>187</v>
+          </cell>
+          <cell r="AD11">
+            <v>198</v>
+          </cell>
+          <cell r="AE11">
+            <v>211</v>
+          </cell>
+          <cell r="AF11">
+            <v>224</v>
+          </cell>
+          <cell r="AG11">
+            <v>236</v>
+          </cell>
+          <cell r="AH11">
+            <v>250</v>
+          </cell>
+          <cell r="AI11">
+            <v>264</v>
+          </cell>
+          <cell r="AJ11">
+            <v>277</v>
+          </cell>
+          <cell r="AK11">
+            <v>292</v>
+          </cell>
+          <cell r="AL11">
+            <v>307</v>
+          </cell>
+          <cell r="AM11">
+            <v>321</v>
+          </cell>
+          <cell r="AN11">
+            <v>337</v>
+          </cell>
+          <cell r="AO11">
+            <v>351</v>
+          </cell>
+          <cell r="AP11">
+            <v>366</v>
+          </cell>
+          <cell r="AQ11">
+            <v>383</v>
+          </cell>
+          <cell r="AR11">
+            <v>398</v>
+          </cell>
+          <cell r="AS11">
+            <v>414</v>
+          </cell>
+          <cell r="AT11">
+            <v>432</v>
+          </cell>
+          <cell r="AU11">
+            <v>450</v>
+          </cell>
+          <cell r="AV11">
+            <v>467</v>
+          </cell>
+          <cell r="AW11">
+            <v>486</v>
+          </cell>
+          <cell r="AX11">
+            <v>503</v>
+          </cell>
+          <cell r="AY11">
+            <v>521</v>
+          </cell>
+          <cell r="AZ11">
+            <v>541</v>
+          </cell>
+          <cell r="BA11">
+            <v>559</v>
+          </cell>
+          <cell r="BB11">
+            <v>578</v>
+          </cell>
+          <cell r="BC11">
+            <v>599</v>
+          </cell>
+          <cell r="BD11">
+            <v>618</v>
+          </cell>
+          <cell r="BE11">
+            <v>638</v>
+          </cell>
+          <cell r="BF11">
+            <v>660</v>
+          </cell>
+          <cell r="BG11">
+            <v>680</v>
+          </cell>
+          <cell r="BH11">
+            <v>701</v>
+          </cell>
+          <cell r="BI11">
+            <v>724</v>
+          </cell>
+          <cell r="BJ11">
+            <v>745</v>
+          </cell>
+          <cell r="BK11">
+            <v>767</v>
+          </cell>
+          <cell r="BL11">
+            <v>791</v>
+          </cell>
+          <cell r="BM11">
+            <v>815</v>
+          </cell>
+          <cell r="BN11">
+            <v>838</v>
+          </cell>
+          <cell r="BO11">
+            <v>863</v>
+          </cell>
+          <cell r="BP11">
+            <v>888</v>
+          </cell>
+          <cell r="BQ11">
+            <v>912</v>
+          </cell>
+          <cell r="BR11">
+            <v>938</v>
+          </cell>
+          <cell r="BS11">
+            <v>962</v>
+          </cell>
+          <cell r="BT11">
+            <v>987</v>
+          </cell>
+          <cell r="BU11">
+            <v>1014</v>
+          </cell>
+          <cell r="BV11">
+            <v>1041</v>
+          </cell>
+          <cell r="BW11">
+            <v>1067</v>
+          </cell>
+          <cell r="BX11">
+            <v>1095</v>
+          </cell>
+          <cell r="BY11">
+            <v>1123</v>
+          </cell>
+          <cell r="BZ11">
+            <v>1150</v>
+          </cell>
+          <cell r="CA11">
+            <v>1179</v>
+          </cell>
+          <cell r="CB11">
+            <v>1208</v>
+          </cell>
+          <cell r="CC11">
+            <v>1236</v>
+          </cell>
+          <cell r="CD11">
+            <v>1266</v>
+          </cell>
+          <cell r="CE11">
+            <v>1296</v>
+          </cell>
+          <cell r="CF11">
+            <v>1325</v>
+          </cell>
+          <cell r="CG11">
+            <v>1356</v>
+          </cell>
+          <cell r="CH11">
+            <v>1387</v>
+          </cell>
+          <cell r="CI11">
+            <v>1417</v>
+          </cell>
+          <cell r="CJ11">
+            <v>1449</v>
+          </cell>
+          <cell r="CK11">
+            <v>1481</v>
+          </cell>
+          <cell r="CL11">
+            <v>1512</v>
+          </cell>
+          <cell r="CM11">
+            <v>1545</v>
+          </cell>
+          <cell r="CN11">
+            <v>1576</v>
+          </cell>
+          <cell r="CO11">
+            <v>1608</v>
+          </cell>
+          <cell r="CP11">
+            <v>1642</v>
+          </cell>
+          <cell r="CQ11">
+            <v>1676</v>
+          </cell>
+          <cell r="CR11">
+            <v>1709</v>
+          </cell>
+          <cell r="CS11">
+            <v>1744</v>
+          </cell>
+          <cell r="CT11">
+            <v>1779</v>
+          </cell>
+          <cell r="CU11">
+            <v>1813</v>
+          </cell>
+          <cell r="CV11">
+            <v>1849</v>
+          </cell>
+          <cell r="CW11">
+            <v>1883</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>sup12_ecr_LOF</v>
+          </cell>
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="C12">
+            <v>2</v>
+          </cell>
+          <cell r="D12">
+            <v>3</v>
+          </cell>
+          <cell r="E12">
+            <v>4</v>
+          </cell>
+          <cell r="F12">
+            <v>5</v>
+          </cell>
+          <cell r="G12">
+            <v>8</v>
+          </cell>
+          <cell r="H12">
+            <v>11</v>
+          </cell>
+          <cell r="I12">
+            <v>12</v>
+          </cell>
+          <cell r="J12">
+            <v>15</v>
+          </cell>
+          <cell r="K12">
+            <v>16</v>
+          </cell>
+          <cell r="L12">
+            <v>17</v>
+          </cell>
+          <cell r="M12">
+            <v>20</v>
+          </cell>
+          <cell r="N12">
+            <v>21</v>
+          </cell>
+          <cell r="O12">
+            <v>22</v>
+          </cell>
+          <cell r="P12">
+            <v>25</v>
+          </cell>
+          <cell r="Q12">
+            <v>26</v>
+          </cell>
+          <cell r="R12">
+            <v>27</v>
+          </cell>
+          <cell r="S12">
+            <v>30</v>
+          </cell>
+          <cell r="T12">
+            <v>33</v>
+          </cell>
+          <cell r="U12">
+            <v>34</v>
+          </cell>
+          <cell r="V12">
+            <v>37</v>
+          </cell>
+          <cell r="W12">
+            <v>40</v>
+          </cell>
+          <cell r="X12">
+            <v>41</v>
+          </cell>
+          <cell r="Y12">
+            <v>44</v>
+          </cell>
+          <cell r="Z12">
+            <v>45</v>
+          </cell>
+          <cell r="AA12">
+            <v>46</v>
+          </cell>
+          <cell r="AB12">
+            <v>49</v>
+          </cell>
+          <cell r="AC12">
+            <v>50</v>
+          </cell>
+          <cell r="AD12">
+            <v>51</v>
+          </cell>
+          <cell r="AE12">
+            <v>54</v>
+          </cell>
+          <cell r="AF12">
+            <v>57</v>
+          </cell>
+          <cell r="AG12">
+            <v>58</v>
+          </cell>
+          <cell r="AH12">
+            <v>61</v>
+          </cell>
+          <cell r="AI12">
+            <v>64</v>
+          </cell>
+          <cell r="AJ12">
+            <v>65</v>
+          </cell>
+          <cell r="AK12">
+            <v>68</v>
+          </cell>
+          <cell r="AL12">
+            <v>71</v>
+          </cell>
+          <cell r="AM12">
+            <v>72</v>
+          </cell>
+          <cell r="AN12">
+            <v>75</v>
+          </cell>
+          <cell r="AO12">
+            <v>76</v>
+          </cell>
+          <cell r="AP12">
+            <v>77</v>
+          </cell>
+          <cell r="AQ12">
+            <v>80</v>
+          </cell>
+          <cell r="AR12">
+            <v>81</v>
+          </cell>
+          <cell r="AS12">
+            <v>82</v>
+          </cell>
+          <cell r="AT12">
+            <v>85</v>
+          </cell>
+          <cell r="AU12">
+            <v>88</v>
+          </cell>
+          <cell r="AV12">
+            <v>89</v>
+          </cell>
+          <cell r="AW12">
+            <v>92</v>
+          </cell>
+          <cell r="AX12">
+            <v>93</v>
+          </cell>
+          <cell r="AY12">
+            <v>94</v>
+          </cell>
+          <cell r="AZ12">
+            <v>97</v>
+          </cell>
+          <cell r="BA12">
+            <v>98</v>
+          </cell>
+          <cell r="BB12">
+            <v>99</v>
+          </cell>
+          <cell r="BC12">
+            <v>102</v>
+          </cell>
+          <cell r="BD12">
+            <v>103</v>
+          </cell>
+          <cell r="BE12">
+            <v>104</v>
+          </cell>
+          <cell r="BF12">
+            <v>107</v>
+          </cell>
+          <cell r="BG12">
+            <v>108</v>
+          </cell>
+          <cell r="BH12">
+            <v>109</v>
+          </cell>
+          <cell r="BI12">
+            <v>112</v>
+          </cell>
+          <cell r="BJ12">
+            <v>113</v>
+          </cell>
+          <cell r="BK12">
+            <v>114</v>
+          </cell>
+          <cell r="BL12">
+            <v>117</v>
+          </cell>
+          <cell r="BM12">
+            <v>120</v>
+          </cell>
+          <cell r="BN12">
+            <v>121</v>
+          </cell>
+          <cell r="BO12">
+            <v>124</v>
+          </cell>
+          <cell r="BP12">
+            <v>127</v>
+          </cell>
+          <cell r="BQ12">
+            <v>128</v>
+          </cell>
+          <cell r="BR12">
+            <v>131</v>
+          </cell>
+          <cell r="BS12">
+            <v>132</v>
+          </cell>
+          <cell r="BT12">
+            <v>133</v>
+          </cell>
+          <cell r="BU12">
+            <v>136</v>
+          </cell>
+          <cell r="BV12">
+            <v>139</v>
+          </cell>
+          <cell r="BW12">
+            <v>140</v>
+          </cell>
+          <cell r="BX12">
+            <v>143</v>
+          </cell>
+          <cell r="BY12">
+            <v>146</v>
+          </cell>
+          <cell r="BZ12">
+            <v>147</v>
+          </cell>
+          <cell r="CA12">
+            <v>150</v>
+          </cell>
+          <cell r="CB12">
+            <v>153</v>
+          </cell>
+          <cell r="CC12">
+            <v>154</v>
+          </cell>
+          <cell r="CD12">
+            <v>157</v>
+          </cell>
+          <cell r="CE12">
+            <v>160</v>
+          </cell>
+          <cell r="CF12">
+            <v>161</v>
+          </cell>
+          <cell r="CG12">
+            <v>164</v>
+          </cell>
+          <cell r="CH12">
+            <v>167</v>
+          </cell>
+          <cell r="CI12">
+            <v>168</v>
+          </cell>
+          <cell r="CJ12">
+            <v>171</v>
+          </cell>
+          <cell r="CK12">
+            <v>174</v>
+          </cell>
+          <cell r="CL12">
+            <v>175</v>
+          </cell>
+          <cell r="CM12">
+            <v>178</v>
+          </cell>
+          <cell r="CN12">
+            <v>179</v>
+          </cell>
+          <cell r="CO12">
+            <v>180</v>
+          </cell>
+          <cell r="CP12">
+            <v>183</v>
+          </cell>
+          <cell r="CQ12">
+            <v>186</v>
+          </cell>
+          <cell r="CR12">
+            <v>187</v>
+          </cell>
+          <cell r="CS12">
+            <v>190</v>
+          </cell>
+          <cell r="CT12">
+            <v>193</v>
+          </cell>
+          <cell r="CU12">
+            <v>194</v>
+          </cell>
+          <cell r="CV12">
+            <v>197</v>
+          </cell>
+          <cell r="CW12">
+            <v>198</v>
           </cell>
         </row>
       </sheetData>
